--- a/data/trans_camb/P16B12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Clase-trans_camb.xlsx
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 0,0</t>
+          <t>-38,82; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 0,0</t>
+          <t>-18,99; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 0,0</t>
+          <t>-38,82; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,1; 0,0</t>
+          <t>-18,99; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,82; 22,66</t>
+          <t>2,85; 22,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 23,61</t>
+          <t>2,89; 24,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,94; 17,35</t>
+          <t>1,94; 17,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 18,54</t>
+          <t>1,97; 16,66</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1027,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 29,29</t>
+          <t>2,93; 29,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 30,87</t>
+          <t>2,98; 32,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,98</t>
+          <t>1,98; 21,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 22,75</t>
+          <t>2,0; 19,98</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 5,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,25</t>
+          <t>-1,86; 3,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,47</t>
+          <t>-1,44; 2,53</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>0,0; 5,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,43</t>
+          <t>-1,86; 3,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,53</t>
+          <t>-1,44; 2,6</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 20,6</t>
+          <t>-1,3; 19,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,69</t>
+          <t>0,0; 23,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,67</t>
+          <t>-0,86; 13,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 13,52</t>
+          <t>-1,0; 11,92</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 0,0</t>
+          <t>-8,47; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 26,72</t>
+          <t>-1,3; 25,71</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,35</t>
+          <t>0,0; 29,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 14,56</t>
+          <t>-0,86; 15,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 15,76</t>
+          <t>-1,0; 13,79</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,39</t>
+          <t>0,7; 6,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,73</t>
+          <t>-1,1; 5,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,08</t>
+          <t>0,7; 6,97</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 5,25</t>
+          <t>-1,24; 5,54</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,98</t>
+          <t>0,71; 7,49</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,07</t>
+          <t>-1,11; 5,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,71; 7,62</t>
+          <t>0,71; 7,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,58</t>
+          <t>-1,25; 5,9</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,56</t>
+          <t>0,47; 5,02</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,73</t>
+          <t>-0,73; 3,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,9</t>
+          <t>-0,14; 5,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,23</t>
+          <t>0,0; 5,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,83</t>
+          <t>0,6; 3,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,37</t>
+          <t>0,15; 3,71</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,78</t>
+          <t>0,47; 5,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,88</t>
+          <t>-0,73; 4,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,16</t>
+          <t>-0,14; 5,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,09; 5,59</t>
+          <t>0,0; 5,33</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,01</t>
+          <t>0,61; 3,78</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,52</t>
+          <t>0,15; 3,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B12-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
